--- a/WhiteSanepar.xlsx
+++ b/WhiteSanepar.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$804</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4780" uniqueCount="3258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4804" uniqueCount="3259">
   <si>
     <t>UNIDADE</t>
   </si>
@@ -9798,6 +9801,9 @@
   </si>
   <si>
     <t>8AP359AFPPU237891</t>
+  </si>
+  <si>
+    <t>Activated</t>
   </si>
 </sst>
 </file>
@@ -9813,12 +9819,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -9833,8 +9851,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10117,8 +10137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F804"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10152,7 +10172,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -10167,12 +10187,12 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="e">
-        <v>#N/A</v>
+      <c r="F2" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
@@ -10187,12 +10207,12 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="e">
-        <v>#N/A</v>
+      <c r="F3" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
@@ -10207,12 +10227,12 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="e">
-        <v>#N/A</v>
+      <c r="F4" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
@@ -10227,12 +10247,12 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="e">
-        <v>#N/A</v>
+      <c r="F5" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B6" t="s">
@@ -10248,11 +10268,11 @@
         <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B7" t="s">
@@ -10268,11 +10288,11 @@
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B8" t="s">
@@ -10288,11 +10308,11 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B9" t="s">
@@ -10308,11 +10328,11 @@
         <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B10" t="s">
@@ -10328,11 +10348,11 @@
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B11" t="s">
@@ -10348,11 +10368,11 @@
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B12" t="s">
@@ -10368,11 +10388,11 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B13" t="s">
@@ -10388,11 +10408,11 @@
         <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B14" t="s">
@@ -10408,11 +10428,11 @@
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B15" t="s">
@@ -10428,11 +10448,11 @@
         <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B16" t="s">
@@ -10448,11 +10468,11 @@
         <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B17" t="s">
@@ -10468,11 +10488,11 @@
         <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B18" t="s">
@@ -10488,11 +10508,11 @@
         <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B19" t="s">
@@ -10508,11 +10528,11 @@
         <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B20" t="s">
@@ -10528,11 +10548,11 @@
         <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B21" t="s">
@@ -10548,11 +10568,11 @@
         <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B22" t="s">
@@ -10568,11 +10588,11 @@
         <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B23" t="s">
@@ -10588,11 +10608,11 @@
         <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B24" t="s">
@@ -10608,11 +10628,11 @@
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B25" t="s">
@@ -10628,11 +10648,11 @@
         <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B26" t="s">
@@ -10648,11 +10668,11 @@
         <v>109</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B27" t="s">
@@ -10668,11 +10688,11 @@
         <v>109</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B28" t="s">
@@ -10687,12 +10707,12 @@
       <c r="E28" t="s">
         <v>118</v>
       </c>
-      <c r="F28" t="e">
-        <v>#N/A</v>
+      <c r="F28" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B29" t="s">
@@ -10708,11 +10728,11 @@
         <v>123</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B30" t="s">
@@ -10728,11 +10748,11 @@
         <v>123</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B31" t="s">
@@ -10748,11 +10768,11 @@
         <v>123</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B32" t="s">
@@ -10767,12 +10787,12 @@
       <c r="E32" t="s">
         <v>123</v>
       </c>
-      <c r="F32" t="e">
-        <v>#N/A</v>
+      <c r="F32" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B33" t="s">
@@ -10788,11 +10808,11 @@
         <v>140</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B34" t="s">
@@ -10808,11 +10828,11 @@
         <v>140</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B35" t="s">
@@ -10828,11 +10848,11 @@
         <v>140</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B36" t="s">
@@ -10848,11 +10868,11 @@
         <v>140</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B37" t="s">
@@ -10868,11 +10888,11 @@
         <v>140</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B38" t="s">
@@ -10888,11 +10908,11 @@
         <v>140</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B39" t="s">
@@ -10908,11 +10928,11 @@
         <v>140</v>
       </c>
       <c r="F39" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B40" t="s">
@@ -10928,11 +10948,11 @@
         <v>140</v>
       </c>
       <c r="F40" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B41" t="s">
@@ -10948,11 +10968,11 @@
         <v>140</v>
       </c>
       <c r="F41" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B42" t="s">
@@ -10968,11 +10988,11 @@
         <v>140</v>
       </c>
       <c r="F42" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B43" t="s">
@@ -10988,11 +11008,11 @@
         <v>140</v>
       </c>
       <c r="F43" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B44" t="s">
@@ -11008,11 +11028,11 @@
         <v>140</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B45" t="s">
@@ -11028,11 +11048,11 @@
         <v>140</v>
       </c>
       <c r="F45" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B46" t="s">
@@ -11048,11 +11068,11 @@
         <v>140</v>
       </c>
       <c r="F46" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B47" t="s">
@@ -11068,11 +11088,11 @@
         <v>140</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B48" t="s">
@@ -11088,11 +11108,11 @@
         <v>140</v>
       </c>
       <c r="F48" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B49" t="s">
@@ -11108,11 +11128,11 @@
         <v>140</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B50" t="s">
@@ -11128,11 +11148,11 @@
         <v>140</v>
       </c>
       <c r="F50" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B51" t="s">
@@ -11148,11 +11168,11 @@
         <v>140</v>
       </c>
       <c r="F51" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B52" t="s">
@@ -11167,12 +11187,12 @@
       <c r="E52" t="s">
         <v>140</v>
       </c>
-      <c r="F52" t="e">
-        <v>#N/A</v>
+      <c r="F52" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B53" t="s">
@@ -11188,11 +11208,11 @@
         <v>221</v>
       </c>
       <c r="F53" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B54" t="s">
@@ -11208,11 +11228,11 @@
         <v>221</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B55" t="s">
@@ -11228,11 +11248,11 @@
         <v>221</v>
       </c>
       <c r="F55" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B56" t="s">
@@ -11247,12 +11267,12 @@
       <c r="E56" t="s">
         <v>221</v>
       </c>
-      <c r="F56" t="e">
-        <v>#N/A</v>
+      <c r="F56" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B57" t="s">
@@ -11268,11 +11288,11 @@
         <v>238</v>
       </c>
       <c r="F57" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B58" t="s">
@@ -11288,11 +11308,11 @@
         <v>238</v>
       </c>
       <c r="F58" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B59" t="s">
@@ -11308,11 +11328,11 @@
         <v>238</v>
       </c>
       <c r="F59" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B60" t="s">
@@ -11328,11 +11348,11 @@
         <v>238</v>
       </c>
       <c r="F60" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B61" t="s">
@@ -11348,11 +11368,11 @@
         <v>238</v>
       </c>
       <c r="F61" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B62" t="s">
@@ -11367,12 +11387,12 @@
       <c r="E62" t="s">
         <v>238</v>
       </c>
-      <c r="F62" t="e">
-        <v>#N/A</v>
+      <c r="F62" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B63" t="s">
@@ -11388,11 +11408,11 @@
         <v>263</v>
       </c>
       <c r="F63" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B64" t="s">
@@ -11407,12 +11427,12 @@
       <c r="E64" t="s">
         <v>263</v>
       </c>
-      <c r="F64" t="e">
-        <v>#N/A</v>
+      <c r="F64" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B65" t="s">
@@ -11427,12 +11447,12 @@
       <c r="E65" t="s">
         <v>263</v>
       </c>
-      <c r="F65" t="e">
-        <v>#N/A</v>
+      <c r="F65" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B66" t="s">
@@ -11447,12 +11467,12 @@
       <c r="E66" t="s">
         <v>276</v>
       </c>
-      <c r="F66" t="e">
-        <v>#N/A</v>
+      <c r="F66" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B67" t="s">
@@ -11467,12 +11487,12 @@
       <c r="E67" t="s">
         <v>276</v>
       </c>
-      <c r="F67" t="e">
-        <v>#N/A</v>
+      <c r="F67" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B68" t="s">
@@ -11487,12 +11507,12 @@
       <c r="E68" t="s">
         <v>276</v>
       </c>
-      <c r="F68" t="e">
-        <v>#N/A</v>
+      <c r="F68" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B69" t="s">
@@ -11508,11 +11528,11 @@
         <v>289</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>290</v>
       </c>
       <c r="B70" t="s">
@@ -11528,11 +11548,11 @@
         <v>289</v>
       </c>
       <c r="F70" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B71" t="s">
@@ -11548,11 +11568,11 @@
         <v>289</v>
       </c>
       <c r="F71" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B72" t="s">
@@ -11568,11 +11588,11 @@
         <v>289</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B73" t="s">
@@ -11588,11 +11608,11 @@
         <v>289</v>
       </c>
       <c r="F73" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B74" t="s">
@@ -11608,11 +11628,11 @@
         <v>289</v>
       </c>
       <c r="F74" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>310</v>
       </c>
       <c r="B75" t="s">
@@ -11628,11 +11648,11 @@
         <v>289</v>
       </c>
       <c r="F75" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B76" t="s">
@@ -11648,11 +11668,11 @@
         <v>289</v>
       </c>
       <c r="F76" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>318</v>
       </c>
       <c r="B77" t="s">
@@ -11668,11 +11688,11 @@
         <v>289</v>
       </c>
       <c r="F77" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>322</v>
       </c>
       <c r="B78" t="s">
@@ -11688,11 +11708,11 @@
         <v>289</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>326</v>
       </c>
       <c r="B79" t="s">
@@ -11708,11 +11728,11 @@
         <v>289</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B80" t="s">
@@ -11728,11 +11748,11 @@
         <v>289</v>
       </c>
       <c r="F80" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B81" t="s">
@@ -11748,11 +11768,11 @@
         <v>289</v>
       </c>
       <c r="F81" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B82" t="s">
@@ -11768,11 +11788,11 @@
         <v>342</v>
       </c>
       <c r="F82" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B83" t="s">
@@ -11788,11 +11808,11 @@
         <v>342</v>
       </c>
       <c r="F83" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B84" t="s">
@@ -11808,11 +11828,11 @@
         <v>342</v>
       </c>
       <c r="F84" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>351</v>
       </c>
       <c r="B85" t="s">
@@ -11828,11 +11848,11 @@
         <v>342</v>
       </c>
       <c r="F85" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B86" t="s">
@@ -11848,11 +11868,11 @@
         <v>342</v>
       </c>
       <c r="F86" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>359</v>
       </c>
       <c r="B87" t="s">
@@ -11868,11 +11888,11 @@
         <v>342</v>
       </c>
       <c r="F87" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
         <v>363</v>
       </c>
       <c r="B88" t="s">
@@ -11888,11 +11908,11 @@
         <v>342</v>
       </c>
       <c r="F88" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
         <v>367</v>
       </c>
       <c r="B89" t="s">
@@ -11908,11 +11928,11 @@
         <v>342</v>
       </c>
       <c r="F89" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+      <c r="A90" s="1" t="s">
         <v>371</v>
       </c>
       <c r="B90" t="s">
@@ -11928,11 +11948,11 @@
         <v>342</v>
       </c>
       <c r="F90" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
         <v>375</v>
       </c>
       <c r="B91" t="s">
@@ -11948,11 +11968,11 @@
         <v>379</v>
       </c>
       <c r="F91" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>380</v>
       </c>
       <c r="B92" t="s">
@@ -11968,11 +11988,11 @@
         <v>379</v>
       </c>
       <c r="F92" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>384</v>
       </c>
       <c r="B93" t="s">
@@ -11988,11 +12008,11 @@
         <v>379</v>
       </c>
       <c r="F93" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>388</v>
       </c>
       <c r="B94" t="s">
@@ -12008,11 +12028,11 @@
         <v>379</v>
       </c>
       <c r="F94" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>392</v>
       </c>
       <c r="B95" t="s">
@@ -12028,11 +12048,11 @@
         <v>379</v>
       </c>
       <c r="F95" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>396</v>
       </c>
       <c r="B96" t="s">
@@ -12047,12 +12067,12 @@
       <c r="E96" t="s">
         <v>379</v>
       </c>
-      <c r="F96" t="e">
-        <v>#N/A</v>
+      <c r="F96" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>400</v>
       </c>
       <c r="B97" t="s">
@@ -12067,12 +12087,12 @@
       <c r="E97" t="s">
         <v>379</v>
       </c>
-      <c r="F97" t="e">
-        <v>#N/A</v>
+      <c r="F97" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>404</v>
       </c>
       <c r="B98" t="s">
@@ -12088,11 +12108,11 @@
         <v>408</v>
       </c>
       <c r="F98" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>409</v>
       </c>
       <c r="B99" t="s">
@@ -12108,11 +12128,11 @@
         <v>408</v>
       </c>
       <c r="F99" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>413</v>
       </c>
       <c r="B100" t="s">
@@ -12128,11 +12148,11 @@
         <v>408</v>
       </c>
       <c r="F100" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="A101" s="1" t="s">
         <v>417</v>
       </c>
       <c r="B101" t="s">
@@ -12148,11 +12168,11 @@
         <v>408</v>
       </c>
       <c r="F101" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="A102" s="1" t="s">
         <v>421</v>
       </c>
       <c r="B102" t="s">
@@ -12168,11 +12188,11 @@
         <v>408</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="A103" s="1" t="s">
         <v>425</v>
       </c>
       <c r="B103" t="s">
@@ -12188,11 +12208,11 @@
         <v>408</v>
       </c>
       <c r="F103" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+      <c r="A104" s="1" t="s">
         <v>429</v>
       </c>
       <c r="B104" t="s">
@@ -12208,11 +12228,11 @@
         <v>408</v>
       </c>
       <c r="F104" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+      <c r="A105" s="1" t="s">
         <v>433</v>
       </c>
       <c r="B105" t="s">
@@ -12228,11 +12248,11 @@
         <v>408</v>
       </c>
       <c r="F105" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="A106" s="1" t="s">
         <v>437</v>
       </c>
       <c r="B106" t="s">
@@ -12248,11 +12268,11 @@
         <v>408</v>
       </c>
       <c r="F106" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="A107" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B107" t="s">
@@ -12268,11 +12288,11 @@
         <v>408</v>
       </c>
       <c r="F107" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+      <c r="A108" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B108" t="s">
@@ -12288,11 +12308,11 @@
         <v>408</v>
       </c>
       <c r="F108" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+      <c r="A109" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B109" t="s">
@@ -12308,11 +12328,11 @@
         <v>408</v>
       </c>
       <c r="F109" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+      <c r="A110" s="1" t="s">
         <v>453</v>
       </c>
       <c r="B110" t="s">
@@ -12328,11 +12348,11 @@
         <v>408</v>
       </c>
       <c r="F110" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+      <c r="A111" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B111" t="s">
@@ -12348,11 +12368,11 @@
         <v>408</v>
       </c>
       <c r="F111" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+      <c r="A112" s="1" t="s">
         <v>461</v>
       </c>
       <c r="B112" t="s">
@@ -12368,11 +12388,11 @@
         <v>408</v>
       </c>
       <c r="F112" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+      <c r="A113" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B113" t="s">
@@ -12388,11 +12408,11 @@
         <v>408</v>
       </c>
       <c r="F113" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+      <c r="A114" s="1" t="s">
         <v>469</v>
       </c>
       <c r="B114" t="s">
@@ -12408,11 +12428,11 @@
         <v>408</v>
       </c>
       <c r="F114" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+      <c r="A115" s="1" t="s">
         <v>473</v>
       </c>
       <c r="B115" t="s">
@@ -12428,11 +12448,11 @@
         <v>408</v>
       </c>
       <c r="F115" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+      <c r="A116" s="1" t="s">
         <v>477</v>
       </c>
       <c r="B116" t="s">
@@ -12448,11 +12468,11 @@
         <v>408</v>
       </c>
       <c r="F116" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+      <c r="A117" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B117" t="s">
@@ -12468,11 +12488,11 @@
         <v>408</v>
       </c>
       <c r="F117" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+      <c r="A118" s="1" t="s">
         <v>485</v>
       </c>
       <c r="B118" t="s">
@@ -12488,11 +12508,11 @@
         <v>408</v>
       </c>
       <c r="F118" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+      <c r="A119" s="1" t="s">
         <v>489</v>
       </c>
       <c r="B119" t="s">
@@ -12508,11 +12528,11 @@
         <v>408</v>
       </c>
       <c r="F119" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+      <c r="A120" s="1" t="s">
         <v>493</v>
       </c>
       <c r="B120" t="s">
@@ -12528,11 +12548,11 @@
         <v>408</v>
       </c>
       <c r="F120" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+      <c r="A121" s="1" t="s">
         <v>497</v>
       </c>
       <c r="B121" t="s">
@@ -12548,11 +12568,11 @@
         <v>408</v>
       </c>
       <c r="F121" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+      <c r="A122" s="1" t="s">
         <v>501</v>
       </c>
       <c r="B122" t="s">
@@ -12568,11 +12588,11 @@
         <v>408</v>
       </c>
       <c r="F122" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
+      <c r="A123" s="1" t="s">
         <v>505</v>
       </c>
       <c r="B123" t="s">
@@ -12588,11 +12608,11 @@
         <v>408</v>
       </c>
       <c r="F123" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
+      <c r="A124" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B124" t="s">
@@ -12608,11 +12628,11 @@
         <v>408</v>
       </c>
       <c r="F124" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
+      <c r="A125" s="1" t="s">
         <v>513</v>
       </c>
       <c r="B125" t="s">
@@ -12627,12 +12647,12 @@
       <c r="E125" t="s">
         <v>408</v>
       </c>
-      <c r="F125" t="e">
-        <v>#N/A</v>
+      <c r="F125" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
+      <c r="A126" s="1" t="s">
         <v>517</v>
       </c>
       <c r="B126" t="s">
@@ -12648,11 +12668,11 @@
         <v>521</v>
       </c>
       <c r="F126" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
+      <c r="A127" s="1" t="s">
         <v>522</v>
       </c>
       <c r="B127" t="s">
@@ -12668,11 +12688,11 @@
         <v>521</v>
       </c>
       <c r="F127" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
+      <c r="A128" s="1" t="s">
         <v>526</v>
       </c>
       <c r="B128" t="s">
@@ -12688,11 +12708,11 @@
         <v>521</v>
       </c>
       <c r="F128" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+      <c r="A129" s="1" t="s">
         <v>530</v>
       </c>
       <c r="B129" t="s">
@@ -12708,11 +12728,11 @@
         <v>521</v>
       </c>
       <c r="F129" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+      <c r="A130" s="1" t="s">
         <v>534</v>
       </c>
       <c r="B130" t="s">
@@ -12728,11 +12748,11 @@
         <v>521</v>
       </c>
       <c r="F130" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
+      <c r="A131" s="1" t="s">
         <v>538</v>
       </c>
       <c r="B131" t="s">
@@ -12748,11 +12768,11 @@
         <v>521</v>
       </c>
       <c r="F131" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+      <c r="A132" s="1" t="s">
         <v>542</v>
       </c>
       <c r="B132" t="s">
@@ -12768,11 +12788,11 @@
         <v>521</v>
       </c>
       <c r="F132" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+      <c r="A133" s="1" t="s">
         <v>546</v>
       </c>
       <c r="B133" t="s">
@@ -12788,11 +12808,11 @@
         <v>521</v>
       </c>
       <c r="F133" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+      <c r="A134" s="1" t="s">
         <v>550</v>
       </c>
       <c r="B134" t="s">
@@ -12808,11 +12828,11 @@
         <v>521</v>
       </c>
       <c r="F134" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
+      <c r="A135" s="1" t="s">
         <v>554</v>
       </c>
       <c r="B135" t="s">
@@ -12828,11 +12848,11 @@
         <v>521</v>
       </c>
       <c r="F135" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+      <c r="A136" s="1" t="s">
         <v>558</v>
       </c>
       <c r="B136" t="s">
@@ -12848,11 +12868,11 @@
         <v>521</v>
       </c>
       <c r="F136" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
+      <c r="A137" s="1" t="s">
         <v>562</v>
       </c>
       <c r="B137" t="s">
@@ -12868,11 +12888,11 @@
         <v>521</v>
       </c>
       <c r="F137" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
+      <c r="A138" s="1" t="s">
         <v>566</v>
       </c>
       <c r="B138" t="s">
@@ -12888,11 +12908,11 @@
         <v>521</v>
       </c>
       <c r="F138" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
+      <c r="A139" s="1" t="s">
         <v>570</v>
       </c>
       <c r="B139" t="s">
@@ -12908,11 +12928,11 @@
         <v>521</v>
       </c>
       <c r="F139" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+      <c r="A140" s="1" t="s">
         <v>574</v>
       </c>
       <c r="B140" t="s">
@@ -12928,11 +12948,11 @@
         <v>521</v>
       </c>
       <c r="F140" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+      <c r="A141" s="1" t="s">
         <v>578</v>
       </c>
       <c r="B141" t="s">
@@ -12948,11 +12968,11 @@
         <v>521</v>
       </c>
       <c r="F141" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
+      <c r="A142" s="1" t="s">
         <v>582</v>
       </c>
       <c r="B142" t="s">
@@ -12968,11 +12988,11 @@
         <v>521</v>
       </c>
       <c r="F142" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
+      <c r="A143" s="1" t="s">
         <v>586</v>
       </c>
       <c r="B143" t="s">
@@ -12988,11 +13008,11 @@
         <v>521</v>
       </c>
       <c r="F143" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
+      <c r="A144" s="1" t="s">
         <v>590</v>
       </c>
       <c r="B144" t="s">
@@ -13008,11 +13028,11 @@
         <v>521</v>
       </c>
       <c r="F144" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
+      <c r="A145" s="1" t="s">
         <v>594</v>
       </c>
       <c r="B145" t="s">
@@ -13028,11 +13048,11 @@
         <v>521</v>
       </c>
       <c r="F145" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
+      <c r="A146" s="1" t="s">
         <v>598</v>
       </c>
       <c r="B146" t="s">
@@ -13048,11 +13068,11 @@
         <v>521</v>
       </c>
       <c r="F146" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
+      <c r="A147" s="1" t="s">
         <v>602</v>
       </c>
       <c r="B147" t="s">
@@ -13068,11 +13088,11 @@
         <v>521</v>
       </c>
       <c r="F147" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
+      <c r="A148" s="1" t="s">
         <v>606</v>
       </c>
       <c r="B148" t="s">
@@ -13088,11 +13108,11 @@
         <v>521</v>
       </c>
       <c r="F148" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+      <c r="A149" s="1" t="s">
         <v>610</v>
       </c>
       <c r="B149" t="s">
@@ -13108,11 +13128,11 @@
         <v>521</v>
       </c>
       <c r="F149" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
+      <c r="A150" s="1" t="s">
         <v>614</v>
       </c>
       <c r="B150" t="s">
@@ -13128,11 +13148,11 @@
         <v>521</v>
       </c>
       <c r="F150" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
+      <c r="A151" s="1" t="s">
         <v>618</v>
       </c>
       <c r="B151" t="s">
@@ -13148,11 +13168,11 @@
         <v>521</v>
       </c>
       <c r="F151" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
+      <c r="A152" s="1" t="s">
         <v>622</v>
       </c>
       <c r="B152" t="s">
@@ -13168,11 +13188,11 @@
         <v>521</v>
       </c>
       <c r="F152" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
+      <c r="A153" s="2" t="s">
         <v>626</v>
       </c>
       <c r="B153" t="s">
@@ -13188,11 +13208,11 @@
         <v>521</v>
       </c>
       <c r="F153" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
+      <c r="A154" s="2" t="s">
         <v>630</v>
       </c>
       <c r="B154" t="s">
@@ -13208,11 +13228,11 @@
         <v>521</v>
       </c>
       <c r="F154" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
+      <c r="A155" s="2" t="s">
         <v>634</v>
       </c>
       <c r="B155" t="s">
@@ -13228,11 +13248,11 @@
         <v>521</v>
       </c>
       <c r="F155" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
+      <c r="A156" s="2" t="s">
         <v>638</v>
       </c>
       <c r="B156" t="s">
@@ -13248,11 +13268,11 @@
         <v>521</v>
       </c>
       <c r="F156" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
+      <c r="A157" s="2" t="s">
         <v>642</v>
       </c>
       <c r="B157" t="s">
@@ -13268,11 +13288,11 @@
         <v>521</v>
       </c>
       <c r="F157" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
+      <c r="A158" s="2" t="s">
         <v>646</v>
       </c>
       <c r="B158" t="s">
@@ -13288,11 +13308,11 @@
         <v>521</v>
       </c>
       <c r="F158" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
+      <c r="A159" s="2" t="s">
         <v>650</v>
       </c>
       <c r="B159" t="s">
@@ -13308,11 +13328,11 @@
         <v>521</v>
       </c>
       <c r="F159" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
+      <c r="A160" s="2" t="s">
         <v>654</v>
       </c>
       <c r="B160" t="s">
@@ -13328,11 +13348,11 @@
         <v>521</v>
       </c>
       <c r="F160" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+      <c r="A161" s="2" t="s">
         <v>658</v>
       </c>
       <c r="B161" t="s">
@@ -13348,11 +13368,11 @@
         <v>521</v>
       </c>
       <c r="F161" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
+      <c r="A162" s="2" t="s">
         <v>662</v>
       </c>
       <c r="B162" t="s">
@@ -13368,11 +13388,11 @@
         <v>521</v>
       </c>
       <c r="F162" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
+      <c r="A163" s="2" t="s">
         <v>666</v>
       </c>
       <c r="B163" t="s">
@@ -13388,11 +13408,11 @@
         <v>521</v>
       </c>
       <c r="F163" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
+      <c r="A164" s="2" t="s">
         <v>670</v>
       </c>
       <c r="B164" t="s">
@@ -13408,11 +13428,11 @@
         <v>521</v>
       </c>
       <c r="F164" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
+      <c r="A165" s="2" t="s">
         <v>674</v>
       </c>
       <c r="B165" t="s">
@@ -13427,12 +13447,12 @@
       <c r="E165" t="s">
         <v>521</v>
       </c>
-      <c r="F165" t="e">
-        <v>#N/A</v>
+      <c r="F165" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
+      <c r="A166" s="2" t="s">
         <v>678</v>
       </c>
       <c r="B166" t="s">
@@ -13448,11 +13468,11 @@
         <v>682</v>
       </c>
       <c r="F166" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
+      <c r="A167" s="2" t="s">
         <v>683</v>
       </c>
       <c r="B167" t="s">
@@ -13468,11 +13488,11 @@
         <v>682</v>
       </c>
       <c r="F167" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
+      <c r="A168" s="2" t="s">
         <v>687</v>
       </c>
       <c r="B168" t="s">
@@ -13488,11 +13508,11 @@
         <v>682</v>
       </c>
       <c r="F168" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
+      <c r="A169" s="2" t="s">
         <v>691</v>
       </c>
       <c r="B169" t="s">
@@ -13508,11 +13528,11 @@
         <v>682</v>
       </c>
       <c r="F169" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
+      <c r="A170" s="2" t="s">
         <v>695</v>
       </c>
       <c r="B170" t="s">
@@ -13528,11 +13548,11 @@
         <v>682</v>
       </c>
       <c r="F170" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
+      <c r="A171" s="2" t="s">
         <v>699</v>
       </c>
       <c r="B171" t="s">
@@ -13548,11 +13568,11 @@
         <v>682</v>
       </c>
       <c r="F171" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
+      <c r="A172" s="2" t="s">
         <v>703</v>
       </c>
       <c r="B172" t="s">
@@ -13568,11 +13588,11 @@
         <v>682</v>
       </c>
       <c r="F172" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
+      <c r="A173" s="2" t="s">
         <v>707</v>
       </c>
       <c r="B173" t="s">
@@ -13588,11 +13608,11 @@
         <v>682</v>
       </c>
       <c r="F173" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
+      <c r="A174" s="2" t="s">
         <v>711</v>
       </c>
       <c r="B174" t="s">
@@ -13608,11 +13628,11 @@
         <v>682</v>
       </c>
       <c r="F174" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
+      <c r="A175" s="2" t="s">
         <v>715</v>
       </c>
       <c r="B175" t="s">
@@ -13628,11 +13648,11 @@
         <v>682</v>
       </c>
       <c r="F175" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
+      <c r="A176" s="2" t="s">
         <v>719</v>
       </c>
       <c r="B176" t="s">
@@ -13648,11 +13668,11 @@
         <v>682</v>
       </c>
       <c r="F176" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
+      <c r="A177" s="2" t="s">
         <v>723</v>
       </c>
       <c r="B177" t="s">
@@ -13668,11 +13688,11 @@
         <v>682</v>
       </c>
       <c r="F177" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
+      <c r="A178" s="2" t="s">
         <v>727</v>
       </c>
       <c r="B178" t="s">
@@ -13688,11 +13708,11 @@
         <v>682</v>
       </c>
       <c r="F178" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
+      <c r="A179" s="2" t="s">
         <v>731</v>
       </c>
       <c r="B179" t="s">
@@ -13708,11 +13728,11 @@
         <v>682</v>
       </c>
       <c r="F179" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
+      <c r="A180" s="2" t="s">
         <v>735</v>
       </c>
       <c r="B180" t="s">
@@ -13728,11 +13748,11 @@
         <v>682</v>
       </c>
       <c r="F180" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
+      <c r="A181" s="2" t="s">
         <v>739</v>
       </c>
       <c r="B181" t="s">
@@ -13748,11 +13768,11 @@
         <v>682</v>
       </c>
       <c r="F181" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
+      <c r="A182" s="2" t="s">
         <v>743</v>
       </c>
       <c r="B182" t="s">
@@ -13768,11 +13788,11 @@
         <v>682</v>
       </c>
       <c r="F182" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
+      <c r="A183" s="2" t="s">
         <v>747</v>
       </c>
       <c r="B183" t="s">
@@ -13788,11 +13808,11 @@
         <v>682</v>
       </c>
       <c r="F183" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
+      <c r="A184" s="2" t="s">
         <v>751</v>
       </c>
       <c r="B184" t="s">
@@ -13808,11 +13828,11 @@
         <v>682</v>
       </c>
       <c r="F184" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
+      <c r="A185" s="2" t="s">
         <v>755</v>
       </c>
       <c r="B185" t="s">
@@ -13828,11 +13848,11 @@
         <v>682</v>
       </c>
       <c r="F185" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
+      <c r="A186" s="2" t="s">
         <v>759</v>
       </c>
       <c r="B186" t="s">
@@ -13847,12 +13867,12 @@
       <c r="E186" t="s">
         <v>682</v>
       </c>
-      <c r="F186" t="e">
-        <v>#N/A</v>
+      <c r="F186" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
+      <c r="A187" s="2" t="s">
         <v>763</v>
       </c>
       <c r="B187" t="s">
@@ -13868,11 +13888,11 @@
         <v>767</v>
       </c>
       <c r="F187" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
+      <c r="A188" s="2" t="s">
         <v>768</v>
       </c>
       <c r="B188" t="s">
@@ -13888,11 +13908,11 @@
         <v>767</v>
       </c>
       <c r="F188" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
+      <c r="A189" s="2" t="s">
         <v>772</v>
       </c>
       <c r="B189" t="s">
@@ -13908,11 +13928,11 @@
         <v>767</v>
       </c>
       <c r="F189" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
+      <c r="A190" s="2" t="s">
         <v>776</v>
       </c>
       <c r="B190" t="s">
@@ -13928,11 +13948,11 @@
         <v>767</v>
       </c>
       <c r="F190" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
+      <c r="A191" s="2" t="s">
         <v>780</v>
       </c>
       <c r="B191" t="s">
@@ -13948,11 +13968,11 @@
         <v>767</v>
       </c>
       <c r="F191" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
+      <c r="A192" s="2" t="s">
         <v>784</v>
       </c>
       <c r="B192" t="s">
@@ -13968,11 +13988,11 @@
         <v>767</v>
       </c>
       <c r="F192" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
+      <c r="A193" s="2" t="s">
         <v>788</v>
       </c>
       <c r="B193" t="s">
@@ -13988,11 +14008,11 @@
         <v>767</v>
       </c>
       <c r="F193" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
+      <c r="A194" s="2" t="s">
         <v>792</v>
       </c>
       <c r="B194" t="s">
@@ -14008,11 +14028,11 @@
         <v>767</v>
       </c>
       <c r="F194" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
+      <c r="A195" s="2" t="s">
         <v>796</v>
       </c>
       <c r="B195" t="s">
@@ -14028,11 +14048,11 @@
         <v>767</v>
       </c>
       <c r="F195" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
+      <c r="A196" s="2" t="s">
         <v>800</v>
       </c>
       <c r="B196" t="s">
@@ -14048,11 +14068,11 @@
         <v>767</v>
       </c>
       <c r="F196" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
+      <c r="A197" s="2" t="s">
         <v>804</v>
       </c>
       <c r="B197" t="s">
@@ -14068,11 +14088,11 @@
         <v>767</v>
       </c>
       <c r="F197" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
+      <c r="A198" s="2" t="s">
         <v>808</v>
       </c>
       <c r="B198" t="s">
@@ -14088,11 +14108,11 @@
         <v>767</v>
       </c>
       <c r="F198" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
+      <c r="A199" s="2" t="s">
         <v>812</v>
       </c>
       <c r="B199" t="s">
@@ -14108,11 +14128,11 @@
         <v>767</v>
       </c>
       <c r="F199" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
+      <c r="A200" s="2" t="s">
         <v>816</v>
       </c>
       <c r="B200" t="s">
@@ -14128,11 +14148,11 @@
         <v>767</v>
       </c>
       <c r="F200" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
+      <c r="A201" s="2" t="s">
         <v>820</v>
       </c>
       <c r="B201" t="s">
@@ -14148,11 +14168,11 @@
         <v>767</v>
       </c>
       <c r="F201" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
+      <c r="A202" s="2" t="s">
         <v>824</v>
       </c>
       <c r="B202" t="s">
@@ -14168,11 +14188,11 @@
         <v>767</v>
       </c>
       <c r="F202" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
+      <c r="A203" s="2" t="s">
         <v>828</v>
       </c>
       <c r="B203" t="s">
@@ -14188,11 +14208,11 @@
         <v>767</v>
       </c>
       <c r="F203" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
+      <c r="A204" s="2" t="s">
         <v>832</v>
       </c>
       <c r="B204" t="s">
@@ -14208,11 +14228,11 @@
         <v>767</v>
       </c>
       <c r="F204" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
+      <c r="A205" s="2" t="s">
         <v>836</v>
       </c>
       <c r="B205" t="s">
@@ -14228,11 +14248,11 @@
         <v>767</v>
       </c>
       <c r="F205" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
+      <c r="A206" s="2" t="s">
         <v>840</v>
       </c>
       <c r="B206" t="s">
@@ -14248,11 +14268,11 @@
         <v>767</v>
       </c>
       <c r="F206" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
+      <c r="A207" s="2" t="s">
         <v>844</v>
       </c>
       <c r="B207" t="s">
@@ -14268,11 +14288,11 @@
         <v>767</v>
       </c>
       <c r="F207" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
+      <c r="A208" s="2" t="s">
         <v>848</v>
       </c>
       <c r="B208" t="s">
@@ -14288,11 +14308,11 @@
         <v>767</v>
       </c>
       <c r="F208" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
+      <c r="A209" s="2" t="s">
         <v>852</v>
       </c>
       <c r="B209" t="s">
@@ -14308,11 +14328,11 @@
         <v>767</v>
       </c>
       <c r="F209" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
+      <c r="A210" s="2" t="s">
         <v>856</v>
       </c>
       <c r="B210" t="s">
@@ -14328,11 +14348,11 @@
         <v>767</v>
       </c>
       <c r="F210" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
+      <c r="A211" s="2" t="s">
         <v>860</v>
       </c>
       <c r="B211" t="s">
@@ -14348,11 +14368,11 @@
         <v>767</v>
       </c>
       <c r="F211" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
+      <c r="A212" s="2" t="s">
         <v>864</v>
       </c>
       <c r="B212" t="s">
@@ -14368,11 +14388,11 @@
         <v>767</v>
       </c>
       <c r="F212" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
+      <c r="A213" s="2" t="s">
         <v>868</v>
       </c>
       <c r="B213" t="s">
@@ -14388,11 +14408,11 @@
         <v>767</v>
       </c>
       <c r="F213" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
+      <c r="A214" s="2" t="s">
         <v>872</v>
       </c>
       <c r="B214" t="s">
@@ -14408,11 +14428,11 @@
         <v>767</v>
       </c>
       <c r="F214" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
+      <c r="A215" s="2" t="s">
         <v>876</v>
       </c>
       <c r="B215" t="s">
@@ -14428,11 +14448,11 @@
         <v>767</v>
       </c>
       <c r="F215" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
+      <c r="A216" s="2" t="s">
         <v>880</v>
       </c>
       <c r="B216" t="s">
@@ -14448,11 +14468,11 @@
         <v>767</v>
       </c>
       <c r="F216" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
+      <c r="A217" s="2" t="s">
         <v>884</v>
       </c>
       <c r="B217" t="s">
@@ -14468,11 +14488,11 @@
         <v>767</v>
       </c>
       <c r="F217" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
+      <c r="A218" s="2" t="s">
         <v>888</v>
       </c>
       <c r="B218" t="s">
@@ -14488,11 +14508,11 @@
         <v>767</v>
       </c>
       <c r="F218" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
+      <c r="A219" s="2" t="s">
         <v>892</v>
       </c>
       <c r="B219" t="s">
@@ -14508,11 +14528,11 @@
         <v>767</v>
       </c>
       <c r="F219" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
+      <c r="A220" s="2" t="s">
         <v>896</v>
       </c>
       <c r="B220" t="s">
@@ -14528,11 +14548,11 @@
         <v>767</v>
       </c>
       <c r="F220" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
+      <c r="A221" s="2" t="s">
         <v>900</v>
       </c>
       <c r="B221" t="s">
@@ -14548,11 +14568,11 @@
         <v>767</v>
       </c>
       <c r="F221" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
+      <c r="A222" s="2" t="s">
         <v>904</v>
       </c>
       <c r="B222" t="s">
@@ -14568,11 +14588,11 @@
         <v>767</v>
       </c>
       <c r="F222" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
+      <c r="A223" s="2" t="s">
         <v>908</v>
       </c>
       <c r="B223" t="s">
@@ -14588,11 +14608,11 @@
         <v>767</v>
       </c>
       <c r="F223" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
+      <c r="A224" s="2" t="s">
         <v>912</v>
       </c>
       <c r="B224" t="s">
@@ -14608,11 +14628,11 @@
         <v>767</v>
       </c>
       <c r="F224" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
+      <c r="A225" s="2" t="s">
         <v>916</v>
       </c>
       <c r="B225" t="s">
@@ -14628,11 +14648,11 @@
         <v>767</v>
       </c>
       <c r="F225" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
+      <c r="A226" s="2" t="s">
         <v>920</v>
       </c>
       <c r="B226" t="s">
@@ -14648,11 +14668,11 @@
         <v>767</v>
       </c>
       <c r="F226" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
+      <c r="A227" s="2" t="s">
         <v>924</v>
       </c>
       <c r="B227" t="s">
@@ -14668,11 +14688,11 @@
         <v>767</v>
       </c>
       <c r="F227" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
+      <c r="A228" s="2" t="s">
         <v>928</v>
       </c>
       <c r="B228" t="s">
@@ -14688,11 +14708,11 @@
         <v>767</v>
       </c>
       <c r="F228" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
+      <c r="A229" s="2" t="s">
         <v>932</v>
       </c>
       <c r="B229" t="s">
@@ -14708,11 +14728,11 @@
         <v>767</v>
       </c>
       <c r="F229" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
+      <c r="A230" s="2" t="s">
         <v>936</v>
       </c>
       <c r="B230" t="s">
@@ -14728,11 +14748,11 @@
         <v>767</v>
       </c>
       <c r="F230" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
+      <c r="A231" s="2" t="s">
         <v>940</v>
       </c>
       <c r="B231" t="s">
@@ -14748,11 +14768,11 @@
         <v>767</v>
       </c>
       <c r="F231" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
+      <c r="A232" s="2" t="s">
         <v>944</v>
       </c>
       <c r="B232" t="s">
@@ -14768,11 +14788,11 @@
         <v>767</v>
       </c>
       <c r="F232" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
+      <c r="A233" s="2" t="s">
         <v>948</v>
       </c>
       <c r="B233" t="s">
@@ -14788,11 +14808,11 @@
         <v>767</v>
       </c>
       <c r="F233" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
+      <c r="A234" s="2" t="s">
         <v>952</v>
       </c>
       <c r="B234" t="s">
@@ -14808,11 +14828,11 @@
         <v>767</v>
       </c>
       <c r="F234" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
+      <c r="A235" s="2" t="s">
         <v>956</v>
       </c>
       <c r="B235" t="s">
@@ -14828,11 +14848,11 @@
         <v>767</v>
       </c>
       <c r="F235" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
+      <c r="A236" s="2" t="s">
         <v>960</v>
       </c>
       <c r="B236" t="s">
@@ -14848,11 +14868,11 @@
         <v>767</v>
       </c>
       <c r="F236" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
+      <c r="A237" s="2" t="s">
         <v>964</v>
       </c>
       <c r="B237" t="s">
@@ -14868,11 +14888,11 @@
         <v>767</v>
       </c>
       <c r="F237" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
+      <c r="A238" s="2" t="s">
         <v>968</v>
       </c>
       <c r="B238" t="s">
@@ -14888,11 +14908,11 @@
         <v>767</v>
       </c>
       <c r="F238" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
+      <c r="A239" s="2" t="s">
         <v>972</v>
       </c>
       <c r="B239" t="s">
@@ -14908,11 +14928,11 @@
         <v>767</v>
       </c>
       <c r="F239" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
+      <c r="A240" s="2" t="s">
         <v>976</v>
       </c>
       <c r="B240" t="s">
@@ -14928,11 +14948,11 @@
         <v>767</v>
       </c>
       <c r="F240" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
+      <c r="A241" s="2" t="s">
         <v>980</v>
       </c>
       <c r="B241" t="s">
@@ -14948,11 +14968,11 @@
         <v>767</v>
       </c>
       <c r="F241" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A242" t="s">
+      <c r="A242" s="2" t="s">
         <v>984</v>
       </c>
       <c r="B242" t="s">
@@ -14967,12 +14987,12 @@
       <c r="E242" t="s">
         <v>767</v>
       </c>
-      <c r="F242" t="e">
-        <v>#N/A</v>
+      <c r="F242" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
+      <c r="A243" s="2" t="s">
         <v>988</v>
       </c>
       <c r="B243" t="s">
@@ -14988,11 +15008,11 @@
         <v>992</v>
       </c>
       <c r="F243" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
+      <c r="A244" s="2" t="s">
         <v>993</v>
       </c>
       <c r="B244" t="s">
@@ -15008,11 +15028,11 @@
         <v>992</v>
       </c>
       <c r="F244" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
+      <c r="A245" s="2" t="s">
         <v>997</v>
       </c>
       <c r="B245" t="s">
@@ -15028,11 +15048,11 @@
         <v>992</v>
       </c>
       <c r="F245" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
+      <c r="A246" s="2" t="s">
         <v>1001</v>
       </c>
       <c r="B246" t="s">
@@ -15048,11 +15068,11 @@
         <v>992</v>
       </c>
       <c r="F246" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
+      <c r="A247" s="2" t="s">
         <v>1005</v>
       </c>
       <c r="B247" t="s">
@@ -15068,11 +15088,11 @@
         <v>992</v>
       </c>
       <c r="F247" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
+      <c r="A248" s="2" t="s">
         <v>1009</v>
       </c>
       <c r="B248" t="s">
@@ -15088,11 +15108,11 @@
         <v>992</v>
       </c>
       <c r="F248" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
+      <c r="A249" s="2" t="s">
         <v>1013</v>
       </c>
       <c r="B249" t="s">
@@ -15108,11 +15128,11 @@
         <v>992</v>
       </c>
       <c r="F249" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
+      <c r="A250" s="2" t="s">
         <v>1017</v>
       </c>
       <c r="B250" t="s">
@@ -15128,11 +15148,11 @@
         <v>992</v>
       </c>
       <c r="F250" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
+      <c r="A251" s="2" t="s">
         <v>1021</v>
       </c>
       <c r="B251" t="s">
@@ -15148,11 +15168,11 @@
         <v>992</v>
       </c>
       <c r="F251" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A252" t="s">
+      <c r="A252" s="2" t="s">
         <v>1025</v>
       </c>
       <c r="B252" t="s">
@@ -15168,11 +15188,11 @@
         <v>992</v>
       </c>
       <c r="F252" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
+      <c r="A253" s="2" t="s">
         <v>1029</v>
       </c>
       <c r="B253" t="s">
@@ -15188,11 +15208,11 @@
         <v>992</v>
       </c>
       <c r="F253" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A254" t="s">
+      <c r="A254" s="2" t="s">
         <v>1033</v>
       </c>
       <c r="B254" t="s">
@@ -15208,11 +15228,11 @@
         <v>992</v>
       </c>
       <c r="F254" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
+      <c r="A255" s="2" t="s">
         <v>1037</v>
       </c>
       <c r="B255" t="s">
@@ -15228,11 +15248,11 @@
         <v>992</v>
       </c>
       <c r="F255" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
+      <c r="A256" s="2" t="s">
         <v>1041</v>
       </c>
       <c r="B256" t="s">
@@ -15248,11 +15268,11 @@
         <v>992</v>
       </c>
       <c r="F256" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
+      <c r="A257" s="2" t="s">
         <v>1045</v>
       </c>
       <c r="B257" t="s">
@@ -15268,11 +15288,11 @@
         <v>992</v>
       </c>
       <c r="F257" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
+      <c r="A258" s="2" t="s">
         <v>1049</v>
       </c>
       <c r="B258" t="s">
@@ -15288,11 +15308,11 @@
         <v>992</v>
       </c>
       <c r="F258" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
+      <c r="A259" s="2" t="s">
         <v>1053</v>
       </c>
       <c r="B259" t="s">
@@ -15308,11 +15328,11 @@
         <v>992</v>
       </c>
       <c r="F259" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A260" t="s">
+      <c r="A260" s="2" t="s">
         <v>1057</v>
       </c>
       <c r="B260" t="s">
@@ -15328,11 +15348,11 @@
         <v>992</v>
       </c>
       <c r="F260" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A261" t="s">
+      <c r="A261" s="2" t="s">
         <v>1061</v>
       </c>
       <c r="B261" t="s">
@@ -15348,11 +15368,11 @@
         <v>992</v>
       </c>
       <c r="F261" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A262" t="s">
+      <c r="A262" s="2" t="s">
         <v>1065</v>
       </c>
       <c r="B262" t="s">
@@ -15368,11 +15388,11 @@
         <v>992</v>
       </c>
       <c r="F262" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A263" t="s">
+      <c r="A263" s="2" t="s">
         <v>1069</v>
       </c>
       <c r="B263" t="s">
@@ -15388,11 +15408,11 @@
         <v>992</v>
       </c>
       <c r="F263" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A264" t="s">
+      <c r="A264" s="2" t="s">
         <v>1073</v>
       </c>
       <c r="B264" t="s">
@@ -15408,11 +15428,11 @@
         <v>992</v>
       </c>
       <c r="F264" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A265" t="s">
+      <c r="A265" s="2" t="s">
         <v>1077</v>
       </c>
       <c r="B265" t="s">
@@ -15428,11 +15448,11 @@
         <v>992</v>
       </c>
       <c r="F265" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A266" t="s">
+      <c r="A266" s="2" t="s">
         <v>1081</v>
       </c>
       <c r="B266" t="s">
@@ -15448,11 +15468,11 @@
         <v>992</v>
       </c>
       <c r="F266" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A267" t="s">
+      <c r="A267" s="2" t="s">
         <v>1085</v>
       </c>
       <c r="B267" t="s">
@@ -15468,11 +15488,11 @@
         <v>992</v>
       </c>
       <c r="F267" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A268" t="s">
+      <c r="A268" s="2" t="s">
         <v>1089</v>
       </c>
       <c r="B268" t="s">
@@ -15488,11 +15508,11 @@
         <v>992</v>
       </c>
       <c r="F268" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A269" t="s">
+      <c r="A269" s="2" t="s">
         <v>1093</v>
       </c>
       <c r="B269" t="s">
@@ -15508,11 +15528,11 @@
         <v>992</v>
       </c>
       <c r="F269" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A270" t="s">
+      <c r="A270" s="2" t="s">
         <v>1097</v>
       </c>
       <c r="B270" t="s">
@@ -15528,11 +15548,11 @@
         <v>992</v>
       </c>
       <c r="F270" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A271" t="s">
+      <c r="A271" s="2" t="s">
         <v>1101</v>
       </c>
       <c r="B271" t="s">
@@ -15548,11 +15568,11 @@
         <v>992</v>
       </c>
       <c r="F271" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A272" t="s">
+      <c r="A272" s="2" t="s">
         <v>1105</v>
       </c>
       <c r="B272" t="s">
@@ -15568,11 +15588,11 @@
         <v>992</v>
       </c>
       <c r="F272" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A273" t="s">
+      <c r="A273" s="2" t="s">
         <v>1109</v>
       </c>
       <c r="B273" t="s">
@@ -15588,11 +15608,11 @@
         <v>992</v>
       </c>
       <c r="F273" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A274" t="s">
+      <c r="A274" s="2" t="s">
         <v>1113</v>
       </c>
       <c r="B274" t="s">
@@ -15608,11 +15628,11 @@
         <v>992</v>
       </c>
       <c r="F274" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A275" t="s">
+      <c r="A275" s="2" t="s">
         <v>1117</v>
       </c>
       <c r="B275" t="s">
@@ -15628,11 +15648,11 @@
         <v>992</v>
       </c>
       <c r="F275" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A276" t="s">
+      <c r="A276" s="2" t="s">
         <v>1121</v>
       </c>
       <c r="B276" t="s">
@@ -15648,11 +15668,11 @@
         <v>992</v>
       </c>
       <c r="F276" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A277" t="s">
+      <c r="A277" s="2" t="s">
         <v>1125</v>
       </c>
       <c r="B277" t="s">
@@ -15668,11 +15688,11 @@
         <v>992</v>
       </c>
       <c r="F277" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A278" t="s">
+      <c r="A278" s="2" t="s">
         <v>1129</v>
       </c>
       <c r="B278" t="s">
@@ -15688,11 +15708,11 @@
         <v>992</v>
       </c>
       <c r="F278" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A279" t="s">
+      <c r="A279" s="2" t="s">
         <v>1133</v>
       </c>
       <c r="B279" t="s">
@@ -15708,11 +15728,11 @@
         <v>992</v>
       </c>
       <c r="F279" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A280" t="s">
+      <c r="A280" s="2" t="s">
         <v>1137</v>
       </c>
       <c r="B280" t="s">
@@ -15728,11 +15748,11 @@
         <v>992</v>
       </c>
       <c r="F280" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A281" t="s">
+      <c r="A281" s="2" t="s">
         <v>1141</v>
       </c>
       <c r="B281" t="s">
@@ -15748,11 +15768,11 @@
         <v>992</v>
       </c>
       <c r="F281" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A282" t="s">
+      <c r="A282" s="2" t="s">
         <v>1145</v>
       </c>
       <c r="B282" t="s">
@@ -15768,11 +15788,11 @@
         <v>992</v>
       </c>
       <c r="F282" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A283" t="s">
+      <c r="A283" s="2" t="s">
         <v>1149</v>
       </c>
       <c r="B283" t="s">
@@ -15788,11 +15808,11 @@
         <v>992</v>
       </c>
       <c r="F283" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A284" t="s">
+      <c r="A284" s="2" t="s">
         <v>1153</v>
       </c>
       <c r="B284" t="s">
@@ -15808,11 +15828,11 @@
         <v>992</v>
       </c>
       <c r="F284" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A285" t="s">
+      <c r="A285" s="2" t="s">
         <v>1157</v>
       </c>
       <c r="B285" t="s">
@@ -15828,11 +15848,11 @@
         <v>992</v>
       </c>
       <c r="F285" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A286" t="s">
+      <c r="A286" s="2" t="s">
         <v>1161</v>
       </c>
       <c r="B286" t="s">
@@ -15848,11 +15868,11 @@
         <v>992</v>
       </c>
       <c r="F286" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A287" t="s">
+      <c r="A287" s="2" t="s">
         <v>1165</v>
       </c>
       <c r="B287" t="s">
@@ -15868,11 +15888,11 @@
         <v>992</v>
       </c>
       <c r="F287" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A288" t="s">
+      <c r="A288" s="2" t="s">
         <v>1169</v>
       </c>
       <c r="B288" t="s">
@@ -15888,11 +15908,11 @@
         <v>992</v>
       </c>
       <c r="F288" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A289" t="s">
+      <c r="A289" s="2" t="s">
         <v>1173</v>
       </c>
       <c r="B289" t="s">
@@ -15908,11 +15928,11 @@
         <v>992</v>
       </c>
       <c r="F289" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A290" t="s">
+      <c r="A290" s="2" t="s">
         <v>1177</v>
       </c>
       <c r="B290" t="s">
@@ -15928,11 +15948,11 @@
         <v>992</v>
       </c>
       <c r="F290" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A291" t="s">
+      <c r="A291" s="2" t="s">
         <v>1181</v>
       </c>
       <c r="B291" t="s">
@@ -15948,11 +15968,11 @@
         <v>992</v>
       </c>
       <c r="F291" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A292" t="s">
+      <c r="A292" s="2" t="s">
         <v>1185</v>
       </c>
       <c r="B292" t="s">
@@ -15968,11 +15988,11 @@
         <v>992</v>
       </c>
       <c r="F292" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A293" t="s">
+      <c r="A293" s="2" t="s">
         <v>1189</v>
       </c>
       <c r="B293" t="s">
@@ -15988,11 +16008,11 @@
         <v>992</v>
       </c>
       <c r="F293" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A294" t="s">
+      <c r="A294" s="2" t="s">
         <v>1193</v>
       </c>
       <c r="B294" t="s">
@@ -16007,12 +16027,12 @@
       <c r="E294" t="s">
         <v>992</v>
       </c>
-      <c r="F294" t="e">
-        <v>#N/A</v>
+      <c r="F294" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A295" t="s">
+      <c r="A295" s="2" t="s">
         <v>1197</v>
       </c>
       <c r="B295" t="s">
@@ -16027,12 +16047,12 @@
       <c r="E295" t="s">
         <v>992</v>
       </c>
-      <c r="F295" t="e">
-        <v>#N/A</v>
+      <c r="F295" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A296" t="s">
+      <c r="A296" s="2" t="s">
         <v>1201</v>
       </c>
       <c r="B296" t="s">
@@ -16047,12 +16067,12 @@
       <c r="E296" t="s">
         <v>992</v>
       </c>
-      <c r="F296" t="e">
-        <v>#N/A</v>
+      <c r="F296" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A297" t="s">
+      <c r="A297" s="2" t="s">
         <v>1205</v>
       </c>
       <c r="B297" t="s">
@@ -16067,12 +16087,12 @@
       <c r="E297" t="s">
         <v>992</v>
       </c>
-      <c r="F297" t="e">
-        <v>#N/A</v>
+      <c r="F297" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A298" t="s">
+      <c r="A298" s="2" t="s">
         <v>1209</v>
       </c>
       <c r="B298" t="s">
@@ -16088,11 +16108,11 @@
         <v>1213</v>
       </c>
       <c r="F298" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A299" t="s">
+      <c r="A299" s="2" t="s">
         <v>1214</v>
       </c>
       <c r="B299" t="s">
@@ -16108,11 +16128,11 @@
         <v>1213</v>
       </c>
       <c r="F299" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A300" t="s">
+      <c r="A300" s="2" t="s">
         <v>1218</v>
       </c>
       <c r="B300" t="s">
@@ -16128,11 +16148,11 @@
         <v>1213</v>
       </c>
       <c r="F300" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A301" t="s">
+      <c r="A301" s="2" t="s">
         <v>1222</v>
       </c>
       <c r="B301" t="s">
@@ -16148,11 +16168,11 @@
         <v>1213</v>
       </c>
       <c r="F301" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A302" t="s">
+      <c r="A302" s="2" t="s">
         <v>1226</v>
       </c>
       <c r="B302" t="s">
@@ -16168,11 +16188,11 @@
         <v>1213</v>
       </c>
       <c r="F302" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A303" t="s">
+      <c r="A303" s="2" t="s">
         <v>1230</v>
       </c>
       <c r="B303" t="s">
@@ -16188,7 +16208,7 @@
         <v>1213</v>
       </c>
       <c r="F303" t="s">
-        <v>28</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.35">
@@ -26212,6 +26232,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F804"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>